--- a/Reports/IndMFData/TestIndMF.xlsx
+++ b/Reports/IndMFData/TestIndMF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/IndMFData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3935085-7C30-674C-960D-9C64877823A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E184CC-82EE-A74F-9B36-3298441AEB77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="52Week" sheetId="3" r:id="rId1"/>
@@ -521,7 +521,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
